--- a/verish_sales.xlsx
+++ b/verish_sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Desktop/Vibers/Projects/2025/Verish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C435AE3A-16E4-4847-B21D-304C27EAD49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C1AFB9-FA90-A249-8398-77E0C8D5B87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{A3E41E42-9EF4-3848-910D-43E5DAF16124}"/>
   </bookViews>
@@ -14911,8 +14911,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -15045,25 +15045,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -15291,9 +15291,9 @@
   </sheetPr>
   <dimension ref="A1:AC495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P496"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I494" sqref="I494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -15570,7 +15570,7 @@
         <v>5.5834729201563373E-4</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L3:L66" si="6">IFERROR(MIN(Q4/1000*1.5, 150),"")</f>
+        <f t="shared" ref="L4:L66" si="6">IFERROR(MIN(Q4/1000*1.5, 150),"")</f>
         <v>20.549999999999997</v>
       </c>
       <c r="M4" s="3">
@@ -39807,7 +39807,10 @@
       <c r="F268" s="19" t="s">
         <v>2013</v>
       </c>
-      <c r="I268" s="6"/>
+      <c r="I268" s="6" t="str" cm="1">
+        <f t="array" ref="I268">IFERROR(_xlfn.REGEXEXTRACT(E268,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P268" s="20" t="s">
         <v>4359</v>
       </c>
@@ -39864,7 +39867,10 @@
       <c r="F269" s="19" t="s">
         <v>2014</v>
       </c>
-      <c r="I269" s="6"/>
+      <c r="I269" s="6" t="str" cm="1">
+        <f t="array" ref="I269">IFERROR(_xlfn.REGEXEXTRACT(E269,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P269" s="20" t="s">
         <v>4360</v>
       </c>
@@ -39921,7 +39927,10 @@
       <c r="F270" s="19" t="s">
         <v>2015</v>
       </c>
-      <c r="I270" s="6"/>
+      <c r="I270" s="6" t="str" cm="1">
+        <f t="array" ref="I270">IFERROR(_xlfn.REGEXEXTRACT(E270,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P270" s="20" t="s">
         <v>4361</v>
       </c>
@@ -39978,7 +39987,10 @@
       <c r="F271" s="19" t="s">
         <v>2016</v>
       </c>
-      <c r="I271" s="6"/>
+      <c r="I271" s="6" t="str" cm="1">
+        <f t="array" ref="I271">IFERROR(_xlfn.REGEXEXTRACT(E271,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P271" s="20" t="s">
         <v>4362</v>
       </c>
@@ -40035,7 +40047,10 @@
       <c r="F272" s="19" t="s">
         <v>2017</v>
       </c>
-      <c r="I272" s="6"/>
+      <c r="I272" s="6" t="str" cm="1">
+        <f t="array" ref="I272">IFERROR(_xlfn.REGEXEXTRACT(E272,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P272" s="20" t="s">
         <v>4363</v>
       </c>
@@ -40092,7 +40107,10 @@
       <c r="F273" s="19" t="s">
         <v>2018</v>
       </c>
-      <c r="I273" s="6"/>
+      <c r="I273" s="6" t="str" cm="1">
+        <f t="array" ref="I273">IFERROR(_xlfn.REGEXEXTRACT(E273,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P273" s="20" t="s">
         <v>4364</v>
       </c>
@@ -40149,7 +40167,10 @@
       <c r="F274" s="19" t="s">
         <v>2019</v>
       </c>
-      <c r="I274" s="6"/>
+      <c r="I274" s="6" t="str" cm="1">
+        <f t="array" ref="I274">IFERROR(_xlfn.REGEXEXTRACT(E274,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P274" s="20" t="s">
         <v>4365</v>
       </c>
@@ -40206,7 +40227,10 @@
       <c r="F275" s="19" t="s">
         <v>2020</v>
       </c>
-      <c r="I275" s="6"/>
+      <c r="I275" s="6" t="str" cm="1">
+        <f t="array" ref="I275">IFERROR(_xlfn.REGEXEXTRACT(E275,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P275" s="20" t="s">
         <v>4366</v>
       </c>
@@ -40263,7 +40287,10 @@
       <c r="F276" s="19" t="s">
         <v>2021</v>
       </c>
-      <c r="I276" s="6"/>
+      <c r="I276" s="6" t="str" cm="1">
+        <f t="array" ref="I276">IFERROR(_xlfn.REGEXEXTRACT(E276,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P276" s="20" t="s">
         <v>4367</v>
       </c>
@@ -40317,7 +40344,10 @@
       <c r="F277" s="19" t="s">
         <v>2022</v>
       </c>
-      <c r="I277" s="6"/>
+      <c r="I277" s="6" t="str" cm="1">
+        <f t="array" ref="I277">IFERROR(_xlfn.REGEXEXTRACT(E277,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P277" s="20" t="s">
         <v>4368</v>
       </c>
@@ -40374,6 +40404,10 @@
       <c r="F278" s="19" t="s">
         <v>2023</v>
       </c>
+      <c r="I278" s="6" t="str" cm="1">
+        <f t="array" ref="I278">IFERROR(_xlfn.REGEXEXTRACT(E278,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P278" s="20" t="s">
         <v>4369</v>
       </c>
@@ -40430,6 +40464,10 @@
       <c r="F279" s="19" t="s">
         <v>2024</v>
       </c>
+      <c r="I279" s="6" t="str" cm="1">
+        <f t="array" ref="I279">IFERROR(_xlfn.REGEXEXTRACT(E279,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P279" s="20" t="s">
         <v>4370</v>
       </c>
@@ -40486,6 +40524,10 @@
       <c r="F280" s="19" t="s">
         <v>2025</v>
       </c>
+      <c r="I280" s="6" t="str" cm="1">
+        <f t="array" ref="I280">IFERROR(_xlfn.REGEXEXTRACT(E280,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P280" s="20" t="s">
         <v>4371</v>
       </c>
@@ -40542,6 +40584,10 @@
       <c r="F281" s="19" t="s">
         <v>2026</v>
       </c>
+      <c r="I281" s="6" t="str" cm="1">
+        <f t="array" ref="I281">IFERROR(_xlfn.REGEXEXTRACT(E281,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P281" s="20" t="s">
         <v>4372</v>
       </c>
@@ -40598,6 +40644,10 @@
       <c r="F282" s="19" t="s">
         <v>2027</v>
       </c>
+      <c r="I282" s="6" t="str" cm="1">
+        <f t="array" ref="I282">IFERROR(_xlfn.REGEXEXTRACT(E282,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P282" s="20" t="s">
         <v>4373</v>
       </c>
@@ -40654,6 +40704,10 @@
       <c r="F283" s="19" t="s">
         <v>2028</v>
       </c>
+      <c r="I283" s="6" t="str" cm="1">
+        <f t="array" ref="I283">IFERROR(_xlfn.REGEXEXTRACT(E283,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P283" s="20" t="s">
         <v>4374</v>
       </c>
@@ -40710,6 +40764,10 @@
       <c r="F284" s="19" t="s">
         <v>2029</v>
       </c>
+      <c r="I284" s="6" t="str" cm="1">
+        <f t="array" ref="I284">IFERROR(_xlfn.REGEXEXTRACT(E284,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P284" s="20" t="s">
         <v>4375</v>
       </c>
@@ -40766,6 +40824,10 @@
       <c r="F285" s="19" t="s">
         <v>2030</v>
       </c>
+      <c r="I285" s="6" t="str" cm="1">
+        <f t="array" ref="I285">IFERROR(_xlfn.REGEXEXTRACT(E285,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P285" s="20" t="s">
         <v>4376</v>
       </c>
@@ -40822,6 +40884,10 @@
       <c r="F286" s="19" t="s">
         <v>2031</v>
       </c>
+      <c r="I286" s="6" t="str" cm="1">
+        <f t="array" ref="I286">IFERROR(_xlfn.REGEXEXTRACT(E286,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P286" s="20" t="s">
         <v>4377</v>
       </c>
@@ -40878,6 +40944,10 @@
       <c r="F287" s="19" t="s">
         <v>2032</v>
       </c>
+      <c r="I287" s="6" t="str" cm="1">
+        <f t="array" ref="I287">IFERROR(_xlfn.REGEXEXTRACT(E287,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>bnremmich@gmail.com</v>
+      </c>
       <c r="P287" s="20" t="s">
         <v>4378</v>
       </c>
@@ -40934,6 +41004,10 @@
       <c r="F288" s="19" t="s">
         <v>2033</v>
       </c>
+      <c r="I288" s="6" t="str" cm="1">
+        <f t="array" ref="I288">IFERROR(_xlfn.REGEXEXTRACT(E288,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P288" s="20" t="s">
         <v>4379</v>
       </c>
@@ -40990,6 +41064,10 @@
       <c r="F289" s="19" t="s">
         <v>2034</v>
       </c>
+      <c r="I289" s="6" t="str" cm="1">
+        <f t="array" ref="I289">IFERROR(_xlfn.REGEXEXTRACT(E289,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P289" s="20" t="s">
         <v>4380</v>
       </c>
@@ -41046,6 +41124,10 @@
       <c r="F290" s="19" t="s">
         <v>2035</v>
       </c>
+      <c r="I290" s="6" t="str" cm="1">
+        <f t="array" ref="I290">IFERROR(_xlfn.REGEXEXTRACT(E290,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P290" s="20" t="s">
         <v>4381</v>
       </c>
@@ -41102,6 +41184,10 @@
       <c r="F291" s="19" t="s">
         <v>2036</v>
       </c>
+      <c r="I291" s="6" t="str" cm="1">
+        <f t="array" ref="I291">IFERROR(_xlfn.REGEXEXTRACT(E291,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P291" s="20" t="s">
         <v>4382</v>
       </c>
@@ -41158,6 +41244,10 @@
       <c r="F292" s="19" t="s">
         <v>2037</v>
       </c>
+      <c r="I292" s="6" t="str" cm="1">
+        <f t="array" ref="I292">IFERROR(_xlfn.REGEXEXTRACT(E292,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P292" s="20" t="s">
         <v>4383</v>
       </c>
@@ -41214,6 +41304,10 @@
       <c r="F293" s="19" t="s">
         <v>2038</v>
       </c>
+      <c r="I293" s="6" t="str" cm="1">
+        <f t="array" ref="I293">IFERROR(_xlfn.REGEXEXTRACT(E293,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P293" s="20" t="s">
         <v>4384</v>
       </c>
@@ -41267,6 +41361,10 @@
       <c r="F294" s="19" t="s">
         <v>2039</v>
       </c>
+      <c r="I294" s="6" t="str" cm="1">
+        <f t="array" ref="I294">IFERROR(_xlfn.REGEXEXTRACT(E294,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P294" s="20" t="s">
         <v>4385</v>
       </c>
@@ -41323,6 +41421,10 @@
       <c r="F295" s="19" t="s">
         <v>2040</v>
       </c>
+      <c r="I295" s="6" t="str" cm="1">
+        <f t="array" ref="I295">IFERROR(_xlfn.REGEXEXTRACT(E295,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P295" s="20" t="s">
         <v>4386</v>
       </c>
@@ -41379,6 +41481,10 @@
       <c r="F296" s="19" t="s">
         <v>2041</v>
       </c>
+      <c r="I296" s="6" t="str" cm="1">
+        <f t="array" ref="I296">IFERROR(_xlfn.REGEXEXTRACT(E296,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P296" s="20" t="s">
         <v>4387</v>
       </c>
@@ -41435,6 +41541,10 @@
       <c r="F297" s="19" t="s">
         <v>2042</v>
       </c>
+      <c r="I297" s="6" t="str" cm="1">
+        <f t="array" ref="I297">IFERROR(_xlfn.REGEXEXTRACT(E297,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>meghanp@pearpop.com</v>
+      </c>
       <c r="P297" s="20" t="s">
         <v>4388</v>
       </c>
@@ -41491,6 +41601,10 @@
       <c r="F298" s="19" t="s">
         <v>2043</v>
       </c>
+      <c r="I298" s="6" t="str" cm="1">
+        <f t="array" ref="I298">IFERROR(_xlfn.REGEXEXTRACT(E298,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Cfaithofficial01@gmail.com</v>
+      </c>
       <c r="P298" s="20" t="s">
         <v>4389</v>
       </c>
@@ -41547,6 +41661,10 @@
       <c r="F299" s="19" t="s">
         <v>2044</v>
       </c>
+      <c r="I299" s="6" t="str" cm="1">
+        <f t="array" ref="I299">IFERROR(_xlfn.REGEXEXTRACT(E299,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>aimee@friendsinreality.com</v>
+      </c>
       <c r="P299" s="20" t="s">
         <v>4390</v>
       </c>
@@ -41603,6 +41721,10 @@
       <c r="F300" s="19" t="s">
         <v>2045</v>
       </c>
+      <c r="I300" s="6" t="str" cm="1">
+        <f t="array" ref="I300">IFERROR(_xlfn.REGEXEXTRACT(E300,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P300" s="20" t="s">
         <v>4391</v>
       </c>
@@ -41659,6 +41781,10 @@
       <c r="F301" s="19" t="s">
         <v>2046</v>
       </c>
+      <c r="I301" s="6" t="str" cm="1">
+        <f t="array" ref="I301">IFERROR(_xlfn.REGEXEXTRACT(E301,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P301" s="20" t="s">
         <v>4392</v>
       </c>
@@ -41715,6 +41841,10 @@
       <c r="F302" s="19" t="s">
         <v>2041</v>
       </c>
+      <c r="I302" s="6" t="str" cm="1">
+        <f t="array" ref="I302">IFERROR(_xlfn.REGEXEXTRACT(E302,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P302" s="20" t="s">
         <v>4393</v>
       </c>
@@ -41771,6 +41901,10 @@
       <c r="F303" s="19" t="s">
         <v>2047</v>
       </c>
+      <c r="I303" s="6" t="str" cm="1">
+        <f t="array" ref="I303">IFERROR(_xlfn.REGEXEXTRACT(E303,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Bbygscollabs@gmail.com</v>
+      </c>
       <c r="P303" s="20" t="s">
         <v>4394</v>
       </c>
@@ -41827,6 +41961,10 @@
       <c r="F304" s="19" t="s">
         <v>2048</v>
       </c>
+      <c r="I304" s="6" t="str" cm="1">
+        <f t="array" ref="I304">IFERROR(_xlfn.REGEXEXTRACT(E304,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Anna@cfg.co</v>
+      </c>
       <c r="P304" s="20" t="s">
         <v>4395</v>
       </c>
@@ -41883,6 +42021,10 @@
       <c r="F305" s="19" t="s">
         <v>2049</v>
       </c>
+      <c r="I305" s="6" t="str" cm="1">
+        <f t="array" ref="I305">IFERROR(_xlfn.REGEXEXTRACT(E305,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P305" s="20" t="s">
         <v>4396</v>
       </c>
@@ -41939,6 +42081,10 @@
       <c r="F306" s="19" t="s">
         <v>2050</v>
       </c>
+      <c r="I306" s="6" t="str" cm="1">
+        <f t="array" ref="I306">IFERROR(_xlfn.REGEXEXTRACT(E306,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P306" s="20" t="s">
         <v>4397</v>
       </c>
@@ -41995,6 +42141,10 @@
       <c r="F307" s="19" t="s">
         <v>2051</v>
       </c>
+      <c r="I307" s="6" t="str" cm="1">
+        <f t="array" ref="I307">IFERROR(_xlfn.REGEXEXTRACT(E307,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>ashleyoree5@gmail.com</v>
+      </c>
       <c r="P307" s="20" t="s">
         <v>4398</v>
       </c>
@@ -42048,6 +42198,10 @@
       <c r="F308" s="19" t="s">
         <v>2052</v>
       </c>
+      <c r="I308" s="6" t="str" cm="1">
+        <f t="array" ref="I308">IFERROR(_xlfn.REGEXEXTRACT(E308,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P308" s="20" t="s">
         <v>4399</v>
       </c>
@@ -42104,6 +42258,10 @@
       <c r="F309" s="19" t="s">
         <v>2053</v>
       </c>
+      <c r="I309" s="6" t="str" cm="1">
+        <f t="array" ref="I309">IFERROR(_xlfn.REGEXEXTRACT(E309,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P309" s="20" t="s">
         <v>4400</v>
       </c>
@@ -42157,6 +42315,10 @@
       <c r="F310" s="19" t="s">
         <v>2054</v>
       </c>
+      <c r="I310" s="6" t="str" cm="1">
+        <f t="array" ref="I310">IFERROR(_xlfn.REGEXEXTRACT(E310,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P310" s="20" t="s">
         <v>4401</v>
       </c>
@@ -42213,6 +42375,10 @@
       <c r="F311" s="19" t="s">
         <v>2055</v>
       </c>
+      <c r="I311" s="6" t="str" cm="1">
+        <f t="array" ref="I311">IFERROR(_xlfn.REGEXEXTRACT(E311,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>kharlita101@gmail.com</v>
+      </c>
       <c r="P311" s="20" t="s">
         <v>4402</v>
       </c>
@@ -42269,6 +42435,10 @@
       <c r="F312" s="19" t="s">
         <v>2056</v>
       </c>
+      <c r="I312" s="6" t="str" cm="1">
+        <f t="array" ref="I312">IFERROR(_xlfn.REGEXEXTRACT(E312,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P312" s="20" t="s">
         <v>4403</v>
       </c>
@@ -42325,6 +42495,10 @@
       <c r="F313" s="19" t="s">
         <v>2057</v>
       </c>
+      <c r="I313" s="6" t="str" cm="1">
+        <f t="array" ref="I313">IFERROR(_xlfn.REGEXEXTRACT(E313,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Mrsflawdabookings@gmail.com</v>
+      </c>
       <c r="P313" s="20" t="s">
         <v>4404</v>
       </c>
@@ -42381,6 +42555,10 @@
       <c r="F314" s="19" t="s">
         <v>2058</v>
       </c>
+      <c r="I314" s="6" t="str" cm="1">
+        <f t="array" ref="I314">IFERROR(_xlfn.REGEXEXTRACT(E314,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P314" s="20" t="s">
         <v>4405</v>
       </c>
@@ -42437,6 +42615,10 @@
       <c r="F315" s="19" t="s">
         <v>2059</v>
       </c>
+      <c r="I315" s="6" t="str" cm="1">
+        <f t="array" ref="I315">IFERROR(_xlfn.REGEXEXTRACT(E315,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P315" s="20" t="s">
         <v>4406</v>
       </c>
@@ -42493,6 +42675,10 @@
       <c r="F316" s="19" t="s">
         <v>2060</v>
       </c>
+      <c r="I316" s="6" t="str" cm="1">
+        <f t="array" ref="I316">IFERROR(_xlfn.REGEXEXTRACT(E316,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P316" s="20" t="s">
         <v>4407</v>
       </c>
@@ -42549,6 +42735,10 @@
       <c r="F317" s="19" t="s">
         <v>2061</v>
       </c>
+      <c r="I317" s="6" t="str" cm="1">
+        <f t="array" ref="I317">IFERROR(_xlfn.REGEXEXTRACT(E317,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P317" s="20" t="s">
         <v>4408</v>
       </c>
@@ -42605,6 +42795,10 @@
       <c r="F318" s="19" t="s">
         <v>2062</v>
       </c>
+      <c r="I318" s="6" t="str" cm="1">
+        <f t="array" ref="I318">IFERROR(_xlfn.REGEXEXTRACT(E318,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P318" s="20" t="s">
         <v>4409</v>
       </c>
@@ -42661,6 +42855,10 @@
       <c r="F319" s="19" t="s">
         <v>2063</v>
       </c>
+      <c r="I319" s="6" t="str" cm="1">
+        <f t="array" ref="I319">IFERROR(_xlfn.REGEXEXTRACT(E319,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P319" s="20" t="s">
         <v>4410</v>
       </c>
@@ -42717,6 +42915,10 @@
       <c r="F320" s="19" t="s">
         <v>2064</v>
       </c>
+      <c r="I320" s="6" t="str" cm="1">
+        <f t="array" ref="I320">IFERROR(_xlfn.REGEXEXTRACT(E320,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>ayannadais@gmail.com</v>
+      </c>
       <c r="P320" s="20" t="s">
         <v>4411</v>
       </c>
@@ -42773,6 +42975,10 @@
       <c r="F321" s="19" t="s">
         <v>2065</v>
       </c>
+      <c r="I321" s="6" t="str" cm="1">
+        <f t="array" ref="I321">IFERROR(_xlfn.REGEXEXTRACT(E321,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>noahkettlebusiness@gmail.com</v>
+      </c>
       <c r="P321" s="20" t="s">
         <v>4412</v>
       </c>
@@ -42829,6 +43035,10 @@
       <c r="F322" s="19" t="s">
         <v>2066</v>
       </c>
+      <c r="I322" s="6" t="str" cm="1">
+        <f t="array" ref="I322">IFERROR(_xlfn.REGEXEXTRACT(E322,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>rachael.teal.17@gmail.com</v>
+      </c>
       <c r="P322" s="20" t="s">
         <v>4413</v>
       </c>
@@ -42885,6 +43095,10 @@
       <c r="F323" s="19" t="s">
         <v>2067</v>
       </c>
+      <c r="I323" s="6" t="str" cm="1">
+        <f t="array" ref="I323">IFERROR(_xlfn.REGEXEXTRACT(E323,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>fitsbyfia@gmail.com</v>
+      </c>
       <c r="P323" s="20" t="s">
         <v>4414</v>
       </c>
@@ -42941,6 +43155,10 @@
       <c r="F324" s="19" t="s">
         <v>2068</v>
       </c>
+      <c r="I324" s="6" t="str" cm="1">
+        <f t="array" ref="I324">IFERROR(_xlfn.REGEXEXTRACT(E324,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P324" s="20" t="s">
         <v>4415</v>
       </c>
@@ -42997,6 +43215,10 @@
       <c r="F325" s="19" t="s">
         <v>2069</v>
       </c>
+      <c r="I325" s="6" t="str" cm="1">
+        <f t="array" ref="I325">IFERROR(_xlfn.REGEXEXTRACT(E325,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Ashleighjewels@gmail.com</v>
+      </c>
       <c r="P325" s="20" t="s">
         <v>4416</v>
       </c>
@@ -43053,6 +43275,10 @@
       <c r="F326" s="19" t="s">
         <v>2070</v>
       </c>
+      <c r="I326" s="6" t="str" cm="1">
+        <f t="array" ref="I326">IFERROR(_xlfn.REGEXEXTRACT(E326,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>tseb@live.no</v>
+      </c>
       <c r="P326" s="20" t="s">
         <v>4417</v>
       </c>
@@ -43109,6 +43335,10 @@
       <c r="F327" s="19" t="s">
         <v>2071</v>
       </c>
+      <c r="I327" s="6" t="str" cm="1">
+        <f t="array" ref="I327">IFERROR(_xlfn.REGEXEXTRACT(E327,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P327" s="20" t="s">
         <v>4418</v>
       </c>
@@ -43165,6 +43395,10 @@
       <c r="F328" s="19" t="s">
         <v>2072</v>
       </c>
+      <c r="I328" s="6" t="str" cm="1">
+        <f t="array" ref="I328">IFERROR(_xlfn.REGEXEXTRACT(E328,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P328" s="20" t="s">
         <v>4419</v>
       </c>
@@ -43221,6 +43455,10 @@
       <c r="F329" s="19" t="s">
         <v>2073</v>
       </c>
+      <c r="I329" s="6" t="str" cm="1">
+        <f t="array" ref="I329">IFERROR(_xlfn.REGEXEXTRACT(E329,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>mariah_hollie@hotmail.com</v>
+      </c>
       <c r="P329" s="20" t="s">
         <v>4420</v>
       </c>
@@ -43277,6 +43515,10 @@
       <c r="F330" s="19" t="s">
         <v>2074</v>
       </c>
+      <c r="I330" s="6" t="str" cm="1">
+        <f t="array" ref="I330">IFERROR(_xlfn.REGEXEXTRACT(E330,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P330" s="20" t="s">
         <v>4421</v>
       </c>
@@ -43333,6 +43575,10 @@
       <c r="F331" s="19" t="s">
         <v>2075</v>
       </c>
+      <c r="I331" s="6" t="str" cm="1">
+        <f t="array" ref="I331">IFERROR(_xlfn.REGEXEXTRACT(E331,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P331" s="20" t="s">
         <v>4422</v>
       </c>
@@ -43389,6 +43635,10 @@
       <c r="F332" s="19" t="s">
         <v>2076</v>
       </c>
+      <c r="I332" s="6" t="str" cm="1">
+        <f t="array" ref="I332">IFERROR(_xlfn.REGEXEXTRACT(E332,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>chrisrinapresthus@gmail.com</v>
+      </c>
       <c r="P332" s="20" t="s">
         <v>4423</v>
       </c>
@@ -43445,6 +43695,10 @@
       <c r="F333" s="19" t="s">
         <v>2077</v>
       </c>
+      <c r="I333" s="6" t="str" cm="1">
+        <f t="array" ref="I333">IFERROR(_xlfn.REGEXEXTRACT(E333,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P333" s="20" t="s">
         <v>4424</v>
       </c>
@@ -43501,6 +43755,10 @@
       <c r="F334" s="19" t="s">
         <v>2078</v>
       </c>
+      <c r="I334" s="6" t="str" cm="1">
+        <f t="array" ref="I334">IFERROR(_xlfn.REGEXEXTRACT(E334,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>simranahadparvez@gmail.com</v>
+      </c>
       <c r="P334" s="20" t="s">
         <v>4425</v>
       </c>
@@ -43557,6 +43815,10 @@
       <c r="F335" s="19" t="s">
         <v>2079</v>
       </c>
+      <c r="I335" s="6" t="str" cm="1">
+        <f t="array" ref="I335">IFERROR(_xlfn.REGEXEXTRACT(E335,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P335" s="20" t="s">
         <v>4426</v>
       </c>
@@ -43613,6 +43875,10 @@
       <c r="F336" s="19" t="s">
         <v>2080</v>
       </c>
+      <c r="I336" s="6" t="str" cm="1">
+        <f t="array" ref="I336">IFERROR(_xlfn.REGEXEXTRACT(E336,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>info@liftedreach.com</v>
+      </c>
       <c r="P336" s="20" t="s">
         <v>4427</v>
       </c>
@@ -43669,6 +43935,10 @@
       <c r="F337" s="19" t="s">
         <v>2081</v>
       </c>
+      <c r="I337" s="6" t="str" cm="1">
+        <f t="array" ref="I337">IFERROR(_xlfn.REGEXEXTRACT(E337,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P337" s="20" t="s">
         <v>4428</v>
       </c>
@@ -43725,6 +43995,10 @@
       <c r="F338" s="19" t="s">
         <v>2082</v>
       </c>
+      <c r="I338" s="6" t="str" cm="1">
+        <f t="array" ref="I338">IFERROR(_xlfn.REGEXEXTRACT(E338,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>simranahadparvez@gmail.com</v>
+      </c>
       <c r="P338" s="20" t="s">
         <v>4429</v>
       </c>
@@ -43781,6 +44055,10 @@
       <c r="F339" s="19" t="s">
         <v>2083</v>
       </c>
+      <c r="I339" s="6" t="str" cm="1">
+        <f t="array" ref="I339">IFERROR(_xlfn.REGEXEXTRACT(E339,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P339" s="20" t="s">
         <v>4430</v>
       </c>
@@ -43834,6 +44112,10 @@
       <c r="F340" s="19" t="s">
         <v>2084</v>
       </c>
+      <c r="I340" s="6" t="str" cm="1">
+        <f t="array" ref="I340">IFERROR(_xlfn.REGEXEXTRACT(E340,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P340" s="20" t="s">
         <v>4431</v>
       </c>
@@ -43890,6 +44172,10 @@
       <c r="F341" s="19" t="s">
         <v>2085</v>
       </c>
+      <c r="I341" s="6" t="str" cm="1">
+        <f t="array" ref="I341">IFERROR(_xlfn.REGEXEXTRACT(E341,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P341" s="20" t="s">
         <v>4432</v>
       </c>
@@ -43946,6 +44232,10 @@
       <c r="F342" s="19" t="s">
         <v>2086</v>
       </c>
+      <c r="I342" s="6" t="str" cm="1">
+        <f t="array" ref="I342">IFERROR(_xlfn.REGEXEXTRACT(E342,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P342" s="20" t="s">
         <v>4433</v>
       </c>
@@ -44002,6 +44292,10 @@
       <c r="F343" s="19" t="s">
         <v>2087</v>
       </c>
+      <c r="I343" s="6" t="str" cm="1">
+        <f t="array" ref="I343">IFERROR(_xlfn.REGEXEXTRACT(E343,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Ashleighjewels@gmail.com</v>
+      </c>
       <c r="P343" s="20" t="s">
         <v>4434</v>
       </c>
@@ -44058,6 +44352,10 @@
       <c r="F344" s="19" t="s">
         <v>2088</v>
       </c>
+      <c r="I344" s="6" t="str" cm="1">
+        <f t="array" ref="I344">IFERROR(_xlfn.REGEXEXTRACT(E344,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P344" s="20" t="s">
         <v>4435</v>
       </c>
@@ -44114,6 +44412,10 @@
       <c r="F345" s="19" t="s">
         <v>2089</v>
       </c>
+      <c r="I345" s="6" t="str" cm="1">
+        <f t="array" ref="I345">IFERROR(_xlfn.REGEXEXTRACT(E345,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P345" s="20" t="s">
         <v>4436</v>
       </c>
@@ -44170,6 +44472,10 @@
       <c r="F346" s="19" t="s">
         <v>2090</v>
       </c>
+      <c r="I346" s="6" t="str" cm="1">
+        <f t="array" ref="I346">IFERROR(_xlfn.REGEXEXTRACT(E346,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P346" s="20" t="s">
         <v>4437</v>
       </c>
@@ -44226,6 +44532,10 @@
       <c r="F347" s="19" t="s">
         <v>2091</v>
       </c>
+      <c r="I347" s="6" t="str" cm="1">
+        <f t="array" ref="I347">IFERROR(_xlfn.REGEXEXTRACT(E347,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>BeautyBodyPearl@gmail.com</v>
+      </c>
       <c r="P347" s="20" t="s">
         <v>4438</v>
       </c>
@@ -44282,6 +44592,10 @@
       <c r="F348" s="19" t="s">
         <v>2092</v>
       </c>
+      <c r="I348" s="6" t="str" cm="1">
+        <f t="array" ref="I348">IFERROR(_xlfn.REGEXEXTRACT(E348,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P348" s="20" t="s">
         <v>4439</v>
       </c>
@@ -44338,6 +44652,10 @@
       <c r="F349" s="19" t="s">
         <v>2093</v>
       </c>
+      <c r="I349" s="6" t="str" cm="1">
+        <f t="array" ref="I349">IFERROR(_xlfn.REGEXEXTRACT(E349,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>sofia@thebloggeragent.co.uk</v>
+      </c>
       <c r="P349" s="20" t="s">
         <v>4440</v>
       </c>
@@ -44394,6 +44712,10 @@
       <c r="F350" s="19" t="s">
         <v>2094</v>
       </c>
+      <c r="I350" s="6" t="str" cm="1">
+        <f t="array" ref="I350">IFERROR(_xlfn.REGEXEXTRACT(E350,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P350" s="20" t="s">
         <v>4441</v>
       </c>
@@ -44450,6 +44772,10 @@
       <c r="F351" s="19" t="s">
         <v>2095</v>
       </c>
+      <c r="I351" s="6" t="str" cm="1">
+        <f t="array" ref="I351">IFERROR(_xlfn.REGEXEXTRACT(E351,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P351" s="20" t="s">
         <v>4442</v>
       </c>
@@ -44506,6 +44832,10 @@
       <c r="F352" s="19" t="s">
         <v>2096</v>
       </c>
+      <c r="I352" s="6" t="str" cm="1">
+        <f t="array" ref="I352">IFERROR(_xlfn.REGEXEXTRACT(E352,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>amayaangelicae00@gmail.com</v>
+      </c>
       <c r="P352" s="20" t="s">
         <v>4443</v>
       </c>
@@ -44562,6 +44892,10 @@
       <c r="F353" s="19" t="s">
         <v>2097</v>
       </c>
+      <c r="I353" s="6" t="str" cm="1">
+        <f t="array" ref="I353">IFERROR(_xlfn.REGEXEXTRACT(E353,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P353" s="20" t="s">
         <v>4444</v>
       </c>
@@ -44618,6 +44952,10 @@
       <c r="F354" s="19" t="s">
         <v>2098</v>
       </c>
+      <c r="I354" s="6" t="str" cm="1">
+        <f t="array" ref="I354">IFERROR(_xlfn.REGEXEXTRACT(E354,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>hannah@18talent.com</v>
+      </c>
       <c r="P354" s="20" t="s">
         <v>4445</v>
       </c>
@@ -44674,6 +45012,10 @@
       <c r="F355" s="19" t="s">
         <v>2099</v>
       </c>
+      <c r="I355" s="6" t="str" cm="1">
+        <f t="array" ref="I355">IFERROR(_xlfn.REGEXEXTRACT(E355,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P355" s="20" t="s">
         <v>4446</v>
       </c>
@@ -44730,6 +45072,10 @@
       <c r="F356" s="19" t="s">
         <v>2100</v>
       </c>
+      <c r="I356" s="6" t="str" cm="1">
+        <f t="array" ref="I356">IFERROR(_xlfn.REGEXEXTRACT(E356,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P356" s="20" t="s">
         <v>4447</v>
       </c>
@@ -44786,6 +45132,10 @@
       <c r="F357" s="19" t="s">
         <v>2101</v>
       </c>
+      <c r="I357" s="6" t="str" cm="1">
+        <f t="array" ref="I357">IFERROR(_xlfn.REGEXEXTRACT(E357,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>sophia.musmar@flairmgmt.com</v>
+      </c>
       <c r="P357" s="20" t="s">
         <v>4448</v>
       </c>
@@ -44842,6 +45192,10 @@
       <c r="F358" s="19" t="s">
         <v>2102</v>
       </c>
+      <c r="I358" s="6" t="str" cm="1">
+        <f t="array" ref="I358">IFERROR(_xlfn.REGEXEXTRACT(E358,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P358" s="20" t="s">
         <v>4449</v>
       </c>
@@ -44898,6 +45252,10 @@
       <c r="F359" s="19" t="s">
         <v>2103</v>
       </c>
+      <c r="I359" s="6" t="str" cm="1">
+        <f t="array" ref="I359">IFERROR(_xlfn.REGEXEXTRACT(E359,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P359" s="20" t="s">
         <v>4450</v>
       </c>
@@ -44954,6 +45312,10 @@
       <c r="F360" s="19" t="s">
         <v>2104</v>
       </c>
+      <c r="I360" s="6" t="str" cm="1">
+        <f t="array" ref="I360">IFERROR(_xlfn.REGEXEXTRACT(E360,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Spookymamiforever@gmail.com</v>
+      </c>
       <c r="P360" s="20" t="s">
         <v>4451</v>
       </c>
@@ -45010,6 +45372,10 @@
       <c r="F361" s="19" t="s">
         <v>2105</v>
       </c>
+      <c r="I361" s="6" t="str" cm="1">
+        <f t="array" ref="I361">IFERROR(_xlfn.REGEXEXTRACT(E361,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>kaliyahvorpahl@gmail.com</v>
+      </c>
       <c r="P361" s="20" t="s">
         <v>4452</v>
       </c>
@@ -45066,6 +45432,10 @@
       <c r="F362" s="19" t="s">
         <v>2106</v>
       </c>
+      <c r="I362" s="6" t="str" cm="1">
+        <f t="array" ref="I362">IFERROR(_xlfn.REGEXEXTRACT(E362,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P362" s="20" t="s">
         <v>4453</v>
       </c>
@@ -45122,6 +45492,10 @@
       <c r="F363" s="19" t="s">
         <v>2107</v>
       </c>
+      <c r="I363" s="6" t="str" cm="1">
+        <f t="array" ref="I363">IFERROR(_xlfn.REGEXEXTRACT(E363,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P363" s="20" t="s">
         <v>4454</v>
       </c>
@@ -45178,6 +45552,10 @@
       <c r="F364" s="19" t="s">
         <v>2108</v>
       </c>
+      <c r="I364" s="6" t="str" cm="1">
+        <f t="array" ref="I364">IFERROR(_xlfn.REGEXEXTRACT(E364,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P364" s="20" t="s">
         <v>4455</v>
       </c>
@@ -45234,6 +45612,10 @@
       <c r="F365" s="19" t="s">
         <v>2109</v>
       </c>
+      <c r="I365" s="6" t="str" cm="1">
+        <f t="array" ref="I365">IFERROR(_xlfn.REGEXEXTRACT(E365,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>vianaturley@gmail.com</v>
+      </c>
       <c r="P365" s="20" t="s">
         <v>4456</v>
       </c>
@@ -45290,6 +45672,10 @@
       <c r="F366" s="19" t="s">
         <v>2110</v>
       </c>
+      <c r="I366" s="6" t="str" cm="1">
+        <f t="array" ref="I366">IFERROR(_xlfn.REGEXEXTRACT(E366,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P366" s="20" t="s">
         <v>4457</v>
       </c>
@@ -45346,6 +45732,10 @@
       <c r="F367" s="19" t="s">
         <v>2111</v>
       </c>
+      <c r="I367" s="6" t="str" cm="1">
+        <f t="array" ref="I367">IFERROR(_xlfn.REGEXEXTRACT(E367,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P367" s="20" t="s">
         <v>4458</v>
       </c>
@@ -45402,6 +45792,10 @@
       <c r="F368" s="19" t="s">
         <v>2112</v>
       </c>
+      <c r="I368" s="6" t="str" cm="1">
+        <f t="array" ref="I368">IFERROR(_xlfn.REGEXEXTRACT(E368,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P368" s="20" t="s">
         <v>4459</v>
       </c>
@@ -45458,6 +45852,10 @@
       <c r="F369" s="19" t="s">
         <v>2113</v>
       </c>
+      <c r="I369" s="6" t="str" cm="1">
+        <f t="array" ref="I369">IFERROR(_xlfn.REGEXEXTRACT(E369,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Libertyannmodel@gmail.com</v>
+      </c>
       <c r="P369" s="20" t="s">
         <v>4460</v>
       </c>
@@ -45511,6 +45909,10 @@
       <c r="F370" s="19" t="s">
         <v>2114</v>
       </c>
+      <c r="I370" s="6" t="str" cm="1">
+        <f t="array" ref="I370">IFERROR(_xlfn.REGEXEXTRACT(E370,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P370" s="20" t="s">
         <v>4461</v>
       </c>
@@ -45567,6 +45969,10 @@
       <c r="F371" s="19" t="s">
         <v>2115</v>
       </c>
+      <c r="I371" s="6" t="str" cm="1">
+        <f t="array" ref="I371">IFERROR(_xlfn.REGEXEXTRACT(E371,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P371" s="20" t="s">
         <v>4462</v>
       </c>
@@ -45623,6 +46029,10 @@
       <c r="F372" s="19" t="s">
         <v>2116</v>
       </c>
+      <c r="I372" s="6" t="str" cm="1">
+        <f t="array" ref="I372">IFERROR(_xlfn.REGEXEXTRACT(E372,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>rhianna.x@outlook.com</v>
+      </c>
       <c r="P372" s="20" t="s">
         <v>4463</v>
       </c>
@@ -45679,6 +46089,10 @@
       <c r="F373" s="19" t="s">
         <v>2117</v>
       </c>
+      <c r="I373" s="6" t="str" cm="1">
+        <f t="array" ref="I373">IFERROR(_xlfn.REGEXEXTRACT(E373,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P373" s="20" t="s">
         <v>4464</v>
       </c>
@@ -45735,6 +46149,10 @@
       <c r="F374" s="19" t="s">
         <v>2118</v>
       </c>
+      <c r="I374" s="6" t="str" cm="1">
+        <f t="array" ref="I374">IFERROR(_xlfn.REGEXEXTRACT(E374,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>contactreneerodriguez@gmail.com</v>
+      </c>
       <c r="P374" s="20" t="s">
         <v>4465</v>
       </c>
@@ -45791,6 +46209,10 @@
       <c r="F375" s="19" t="s">
         <v>2119</v>
       </c>
+      <c r="I375" s="6" t="str" cm="1">
+        <f t="array" ref="I375">IFERROR(_xlfn.REGEXEXTRACT(E375,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P375" s="20" t="s">
         <v>4466</v>
       </c>
@@ -45847,6 +46269,10 @@
       <c r="F376" s="19" t="s">
         <v>2120</v>
       </c>
+      <c r="I376" s="6" t="str" cm="1">
+        <f t="array" ref="I376">IFERROR(_xlfn.REGEXEXTRACT(E376,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>amandadawson@underscoretalent.com</v>
+      </c>
       <c r="P376" s="20" t="s">
         <v>4467</v>
       </c>
@@ -45903,6 +46329,10 @@
       <c r="F377" s="19" t="s">
         <v>2121</v>
       </c>
+      <c r="I377" s="6" t="str" cm="1">
+        <f t="array" ref="I377">IFERROR(_xlfn.REGEXEXTRACT(E377,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>itsjenwarnes@gmail.com</v>
+      </c>
       <c r="P377" s="20" t="s">
         <v>4468</v>
       </c>
@@ -45959,6 +46389,10 @@
       <c r="F378" s="19" t="s">
         <v>2122</v>
       </c>
+      <c r="I378" s="6" t="str" cm="1">
+        <f t="array" ref="I378">IFERROR(_xlfn.REGEXEXTRACT(E378,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>josie@wmgmt.co.uk</v>
+      </c>
       <c r="P378" s="20" t="s">
         <v>4469</v>
       </c>
@@ -46015,6 +46449,10 @@
       <c r="F379" s="19" t="s">
         <v>2123</v>
       </c>
+      <c r="I379" s="6" t="str" cm="1">
+        <f t="array" ref="I379">IFERROR(_xlfn.REGEXEXTRACT(E379,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P379" s="20" t="s">
         <v>4470</v>
       </c>
@@ -46071,6 +46509,10 @@
       <c r="F380" s="19" t="s">
         <v>2124</v>
       </c>
+      <c r="I380" s="6" t="str" cm="1">
+        <f t="array" ref="I380">IFERROR(_xlfn.REGEXEXTRACT(E380,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P380" s="20" t="s">
         <v>4471</v>
       </c>
@@ -46127,6 +46569,10 @@
       <c r="F381" s="19" t="s">
         <v>2125</v>
       </c>
+      <c r="I381" s="6" t="str" cm="1">
+        <f t="array" ref="I381">IFERROR(_xlfn.REGEXEXTRACT(E381,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>johnsonniyonna@gmail.com</v>
+      </c>
       <c r="P381" s="20" t="s">
         <v>4472</v>
       </c>
@@ -46183,6 +46629,10 @@
       <c r="F382" s="19" t="s">
         <v>2126</v>
       </c>
+      <c r="I382" s="6" t="str" cm="1">
+        <f t="array" ref="I382">IFERROR(_xlfn.REGEXEXTRACT(E382,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P382" s="20" t="s">
         <v>4473</v>
       </c>
@@ -46239,6 +46689,10 @@
       <c r="F383" s="19" t="s">
         <v>2127</v>
       </c>
+      <c r="I383" s="6" t="str" cm="1">
+        <f t="array" ref="I383">IFERROR(_xlfn.REGEXEXTRACT(E383,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P383" s="20" t="s">
         <v>4474</v>
       </c>
@@ -46295,6 +46749,10 @@
       <c r="F384" s="19" t="s">
         <v>2128</v>
       </c>
+      <c r="I384" s="6" t="str" cm="1">
+        <f t="array" ref="I384">IFERROR(_xlfn.REGEXEXTRACT(E384,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>danielaarivas64@gmail.com</v>
+      </c>
       <c r="P384" s="20" t="s">
         <v>4475</v>
       </c>
@@ -46351,6 +46809,10 @@
       <c r="F385" s="19" t="s">
         <v>2129</v>
       </c>
+      <c r="I385" s="6" t="str" cm="1">
+        <f t="array" ref="I385">IFERROR(_xlfn.REGEXEXTRACT(E385,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P385" s="20" t="s">
         <v>4476</v>
       </c>
@@ -46407,6 +46869,10 @@
       <c r="F386" s="19" t="s">
         <v>2130</v>
       </c>
+      <c r="I386" s="6" t="str" cm="1">
+        <f t="array" ref="I386">IFERROR(_xlfn.REGEXEXTRACT(E386,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>BossBabeDani@gmail.com</v>
+      </c>
       <c r="P386" s="20" t="s">
         <v>4477</v>
       </c>
@@ -46463,6 +46929,10 @@
       <c r="F387" s="19" t="s">
         <v>2131</v>
       </c>
+      <c r="I387" s="6" t="str" cm="1">
+        <f t="array" ref="I387">IFERROR(_xlfn.REGEXEXTRACT(E387,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>twoniver@gmail.com</v>
+      </c>
       <c r="P387" s="20" t="s">
         <v>4478</v>
       </c>
@@ -46519,6 +46989,10 @@
       <c r="F388" s="19" t="s">
         <v>2132</v>
       </c>
+      <c r="I388" s="6" t="str" cm="1">
+        <f t="array" ref="I388">IFERROR(_xlfn.REGEXEXTRACT(E388,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>djfoofconnect@gmail.com</v>
+      </c>
       <c r="P388" s="20" t="s">
         <v>4479</v>
       </c>
@@ -46575,6 +47049,10 @@
       <c r="F389" s="19" t="s">
         <v>2133</v>
       </c>
+      <c r="I389" s="6" t="str" cm="1">
+        <f t="array" ref="I389">IFERROR(_xlfn.REGEXEXTRACT(E389,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P389" s="20" t="s">
         <v>4480</v>
       </c>
@@ -46631,6 +47109,10 @@
       <c r="F390" s="19" t="s">
         <v>2134</v>
       </c>
+      <c r="I390" s="6" t="str" cm="1">
+        <f t="array" ref="I390">IFERROR(_xlfn.REGEXEXTRACT(E390,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P390" s="20" t="s">
         <v>4481</v>
       </c>
@@ -46687,6 +47169,10 @@
       <c r="F391" s="19" t="s">
         <v>2135</v>
       </c>
+      <c r="I391" s="6" t="str" cm="1">
+        <f t="array" ref="I391">IFERROR(_xlfn.REGEXEXTRACT(E391,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>logan@1amtalentgroup.com</v>
+      </c>
       <c r="P391" s="20" t="s">
         <v>4482</v>
       </c>
@@ -46743,6 +47229,10 @@
       <c r="F392" s="19" t="s">
         <v>2136</v>
       </c>
+      <c r="I392" s="6" t="str" cm="1">
+        <f t="array" ref="I392">IFERROR(_xlfn.REGEXEXTRACT(E392,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P392" s="20" t="s">
         <v>4483</v>
       </c>
@@ -46799,6 +47289,10 @@
       <c r="F393" s="19" t="s">
         <v>2137</v>
       </c>
+      <c r="I393" s="6" t="str" cm="1">
+        <f t="array" ref="I393">IFERROR(_xlfn.REGEXEXTRACT(E393,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>sy.angelicaaa@gmail.com</v>
+      </c>
       <c r="P393" s="20" t="s">
         <v>4484</v>
       </c>
@@ -46855,6 +47349,10 @@
       <c r="F394" s="19" t="s">
         <v>2138</v>
       </c>
+      <c r="I394" s="6" t="str" cm="1">
+        <f t="array" ref="I394">IFERROR(_xlfn.REGEXEXTRACT(E394,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>lifestylewithsol@yahoo.com</v>
+      </c>
       <c r="P394" s="20" t="s">
         <v>4485</v>
       </c>
@@ -46911,6 +47409,10 @@
       <c r="F395" s="19" t="s">
         <v>2139</v>
       </c>
+      <c r="I395" s="6" t="str" cm="1">
+        <f t="array" ref="I395">IFERROR(_xlfn.REGEXEXTRACT(E395,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P395" s="20" t="s">
         <v>4486</v>
       </c>
@@ -46967,6 +47469,10 @@
       <c r="F396" s="19" t="s">
         <v>2140</v>
       </c>
+      <c r="I396" s="6" t="str" cm="1">
+        <f t="array" ref="I396">IFERROR(_xlfn.REGEXEXTRACT(E396,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P396" s="20" t="s">
         <v>4487</v>
       </c>
@@ -47023,6 +47529,10 @@
       <c r="F397" s="19" t="s">
         <v>2141</v>
       </c>
+      <c r="I397" s="6" t="str" cm="1">
+        <f t="array" ref="I397">IFERROR(_xlfn.REGEXEXTRACT(E397,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P397" s="20" t="s">
         <v>4488</v>
       </c>
@@ -47079,6 +47589,10 @@
       <c r="F398" s="19" t="s">
         <v>2142</v>
       </c>
+      <c r="I398" s="6" t="str" cm="1">
+        <f t="array" ref="I398">IFERROR(_xlfn.REGEXEXTRACT(E398,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P398" s="20" t="s">
         <v>4489</v>
       </c>
@@ -47135,6 +47649,10 @@
       <c r="F399" s="19" t="s">
         <v>2143</v>
       </c>
+      <c r="I399" s="6" t="str" cm="1">
+        <f t="array" ref="I399">IFERROR(_xlfn.REGEXEXTRACT(E399,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>juliaquang11@gmail.com</v>
+      </c>
       <c r="P399" s="20" t="s">
         <v>4490</v>
       </c>
@@ -47191,6 +47709,10 @@
       <c r="F400" s="19" t="s">
         <v>2144</v>
       </c>
+      <c r="I400" s="6" t="str" cm="1">
+        <f t="array" ref="I400">IFERROR(_xlfn.REGEXEXTRACT(E400,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P400" s="20" t="s">
         <v>4491</v>
       </c>
@@ -47247,6 +47769,10 @@
       <c r="F401" s="19" t="s">
         <v>2145</v>
       </c>
+      <c r="I401" s="6" t="str" cm="1">
+        <f t="array" ref="I401">IFERROR(_xlfn.REGEXEXTRACT(E401,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P401" s="20" t="s">
         <v>4492</v>
       </c>
@@ -47303,6 +47829,10 @@
       <c r="F402" s="19" t="s">
         <v>2146</v>
       </c>
+      <c r="I402" s="6" t="str" cm="1">
+        <f t="array" ref="I402">IFERROR(_xlfn.REGEXEXTRACT(E402,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P402" s="20" t="s">
         <v>4493</v>
       </c>
@@ -47359,6 +47889,10 @@
       <c r="F403" s="19" t="s">
         <v>2147</v>
       </c>
+      <c r="I403" s="6" t="str" cm="1">
+        <f t="array" ref="I403">IFERROR(_xlfn.REGEXEXTRACT(E403,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>caitregan@neonroseagency.com</v>
+      </c>
       <c r="P403" s="20" t="s">
         <v>4494</v>
       </c>
@@ -47415,6 +47949,10 @@
       <c r="F404" s="19" t="s">
         <v>2148</v>
       </c>
+      <c r="I404" s="6" t="str" cm="1">
+        <f t="array" ref="I404">IFERROR(_xlfn.REGEXEXTRACT(E404,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>gotzjuiice@gmail.com</v>
+      </c>
       <c r="P404" s="20" t="s">
         <v>4495</v>
       </c>
@@ -47471,6 +48009,10 @@
       <c r="F405" s="19" t="s">
         <v>2149</v>
       </c>
+      <c r="I405" s="6" t="str" cm="1">
+        <f t="array" ref="I405">IFERROR(_xlfn.REGEXEXTRACT(E405,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>trisha@thetalentbakery.com</v>
+      </c>
       <c r="P405" s="20" t="s">
         <v>4496</v>
       </c>
@@ -47524,6 +48066,10 @@
       <c r="F406" s="19" t="s">
         <v>2150</v>
       </c>
+      <c r="I406" s="6" t="str" cm="1">
+        <f t="array" ref="I406">IFERROR(_xlfn.REGEXEXTRACT(E406,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P406" s="20" t="s">
         <v>4497</v>
       </c>
@@ -47580,6 +48126,10 @@
       <c r="F407" s="19" t="s">
         <v>2151</v>
       </c>
+      <c r="I407" s="6" t="str" cm="1">
+        <f t="array" ref="I407">IFERROR(_xlfn.REGEXEXTRACT(E407,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P407" s="20" t="s">
         <v>4498</v>
       </c>
@@ -47636,6 +48186,10 @@
       <c r="F408" s="19" t="s">
         <v>2152</v>
       </c>
+      <c r="I408" s="6" t="str" cm="1">
+        <f t="array" ref="I408">IFERROR(_xlfn.REGEXEXTRACT(E408,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Tivakristina@gmail.com</v>
+      </c>
       <c r="P408" s="20" t="s">
         <v>4499</v>
       </c>
@@ -47692,6 +48246,10 @@
       <c r="F409" s="19" t="s">
         <v>2153</v>
       </c>
+      <c r="I409" s="6" t="str" cm="1">
+        <f t="array" ref="I409">IFERROR(_xlfn.REGEXEXTRACT(E409,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>nicideh@web.de</v>
+      </c>
       <c r="P409" s="20" t="s">
         <v>4500</v>
       </c>
@@ -47748,6 +48306,10 @@
       <c r="F410" s="19" t="s">
         <v>2154</v>
       </c>
+      <c r="I410" s="6" t="str" cm="1">
+        <f t="array" ref="I410">IFERROR(_xlfn.REGEXEXTRACT(E410,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>hello@alaunapearson.com</v>
+      </c>
       <c r="P410" s="20" t="s">
         <v>4501</v>
       </c>
@@ -47804,6 +48366,10 @@
       <c r="F411" s="19" t="s">
         <v>2155</v>
       </c>
+      <c r="I411" s="6" t="str" cm="1">
+        <f t="array" ref="I411">IFERROR(_xlfn.REGEXEXTRACT(E411,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>heyrissyrozay@gmail.com</v>
+      </c>
       <c r="P411" s="20" t="s">
         <v>4502</v>
       </c>
@@ -47860,6 +48426,10 @@
       <c r="F412" s="19" t="s">
         <v>2156</v>
       </c>
+      <c r="I412" s="6" t="str" cm="1">
+        <f t="array" ref="I412">IFERROR(_xlfn.REGEXEXTRACT(E412,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P412" s="20" t="s">
         <v>4503</v>
       </c>
@@ -47916,6 +48486,10 @@
       <c r="F413" s="19" t="s">
         <v>2157</v>
       </c>
+      <c r="I413" s="6" t="str" cm="1">
+        <f t="array" ref="I413">IFERROR(_xlfn.REGEXEXTRACT(E413,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P413" s="20" t="s">
         <v>4504</v>
       </c>
@@ -47972,6 +48546,10 @@
       <c r="F414" s="19" t="s">
         <v>2158</v>
       </c>
+      <c r="I414" s="6" t="str" cm="1">
+        <f t="array" ref="I414">IFERROR(_xlfn.REGEXEXTRACT(E414,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>maciejade@yahoo.com</v>
+      </c>
       <c r="P414" s="20" t="s">
         <v>4505</v>
       </c>
@@ -48028,6 +48606,10 @@
       <c r="F415" s="19" t="s">
         <v>2159</v>
       </c>
+      <c r="I415" s="6" t="str" cm="1">
+        <f t="array" ref="I415">IFERROR(_xlfn.REGEXEXTRACT(E415,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>monika@impulsomedia.ca</v>
+      </c>
       <c r="P415" s="20" t="s">
         <v>4506</v>
       </c>
@@ -48084,6 +48666,10 @@
       <c r="F416" s="19" t="s">
         <v>2160</v>
       </c>
+      <c r="I416" s="6" t="str" cm="1">
+        <f t="array" ref="I416">IFERROR(_xlfn.REGEXEXTRACT(E416,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P416" s="20" t="s">
         <v>4507</v>
       </c>
@@ -48140,6 +48726,10 @@
       <c r="F417" s="19" t="s">
         <v>2161</v>
       </c>
+      <c r="I417" s="6" t="str" cm="1">
+        <f t="array" ref="I417">IFERROR(_xlfn.REGEXEXTRACT(E417,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P417" s="20" t="s">
         <v>4508</v>
       </c>
@@ -48196,6 +48786,10 @@
       <c r="F418" s="19" t="s">
         <v>2162</v>
       </c>
+      <c r="I418" s="6" t="str" cm="1">
+        <f t="array" ref="I418">IFERROR(_xlfn.REGEXEXTRACT(E418,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P418" s="20" t="s">
         <v>4509</v>
       </c>
@@ -48252,6 +48846,10 @@
       <c r="F419" s="19" t="s">
         <v>2163</v>
       </c>
+      <c r="I419" s="6" t="str" cm="1">
+        <f t="array" ref="I419">IFERROR(_xlfn.REGEXEXTRACT(E419,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>lydia.turnbullcollabs@gmail.com</v>
+      </c>
       <c r="P419" s="20" t="s">
         <v>4510</v>
       </c>
@@ -48308,6 +48906,10 @@
       <c r="F420" s="19" t="s">
         <v>2164</v>
       </c>
+      <c r="I420" s="6" t="str" cm="1">
+        <f t="array" ref="I420">IFERROR(_xlfn.REGEXEXTRACT(E420,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P420" s="20" t="s">
         <v>4511</v>
       </c>
@@ -48364,6 +48966,10 @@
       <c r="F421" s="19" t="s">
         <v>2165</v>
       </c>
+      <c r="I421" s="6" t="str" cm="1">
+        <f t="array" ref="I421">IFERROR(_xlfn.REGEXEXTRACT(E421,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P421" s="20" t="s">
         <v>4512</v>
       </c>
@@ -48420,6 +49026,10 @@
       <c r="F422" s="19" t="s">
         <v>2166</v>
       </c>
+      <c r="I422" s="6" t="str" cm="1">
+        <f t="array" ref="I422">IFERROR(_xlfn.REGEXEXTRACT(E422,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Andy.valenzuela2112@gmail.com</v>
+      </c>
       <c r="P422" s="20" t="s">
         <v>4513</v>
       </c>
@@ -48476,6 +49086,10 @@
       <c r="F423" s="19" t="s">
         <v>2167</v>
       </c>
+      <c r="I423" s="6" t="str" cm="1">
+        <f t="array" ref="I423">IFERROR(_xlfn.REGEXEXTRACT(E423,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P423" s="20" t="s">
         <v>4514</v>
       </c>
@@ -48532,6 +49146,10 @@
       <c r="F424" s="19" t="s">
         <v>2168</v>
       </c>
+      <c r="I424" s="6" t="str" cm="1">
+        <f t="array" ref="I424">IFERROR(_xlfn.REGEXEXTRACT(E424,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P424" s="20" t="s">
         <v>4515</v>
       </c>
@@ -48588,6 +49206,10 @@
       <c r="F425" s="19" t="s">
         <v>2169</v>
       </c>
+      <c r="I425" s="6" t="str" cm="1">
+        <f t="array" ref="I425">IFERROR(_xlfn.REGEXEXTRACT(E425,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P425" s="20" t="s">
         <v>4516</v>
       </c>
@@ -48644,6 +49266,10 @@
       <c r="F426" s="19" t="s">
         <v>2170</v>
       </c>
+      <c r="I426" s="6" t="str" cm="1">
+        <f t="array" ref="I426">IFERROR(_xlfn.REGEXEXTRACT(E426,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>pjjgrimmer@gmail.com</v>
+      </c>
       <c r="P426" s="20" t="s">
         <v>4517</v>
       </c>
@@ -48700,6 +49326,10 @@
       <c r="F427" s="19" t="s">
         <v>2171</v>
       </c>
+      <c r="I427" s="6" t="str" cm="1">
+        <f t="array" ref="I427">IFERROR(_xlfn.REGEXEXTRACT(E427,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Itsari.mannino@gmail.com</v>
+      </c>
       <c r="P427" s="20" t="s">
         <v>4518</v>
       </c>
@@ -48756,6 +49386,10 @@
       <c r="F428" s="19" t="s">
         <v>2172</v>
       </c>
+      <c r="I428" s="6" t="str" cm="1">
+        <f t="array" ref="I428">IFERROR(_xlfn.REGEXEXTRACT(E428,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>lanazimetpartner@gmail.com</v>
+      </c>
       <c r="P428" s="20" t="s">
         <v>4519</v>
       </c>
@@ -48812,6 +49446,10 @@
       <c r="F429" s="19" t="s">
         <v>2173</v>
       </c>
+      <c r="I429" s="6" t="str" cm="1">
+        <f t="array" ref="I429">IFERROR(_xlfn.REGEXEXTRACT(E429,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P429" s="20" t="s">
         <v>4520</v>
       </c>
@@ -48868,6 +49506,10 @@
       <c r="F430" s="19" t="s">
         <v>2174</v>
       </c>
+      <c r="I430" s="6" t="str" cm="1">
+        <f t="array" ref="I430">IFERROR(_xlfn.REGEXEXTRACT(E430,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>dolphinecreates@outlook.com</v>
+      </c>
       <c r="P430" s="20" t="s">
         <v>4521</v>
       </c>
@@ -48924,6 +49566,10 @@
       <c r="F431" s="19" t="s">
         <v>2175</v>
       </c>
+      <c r="I431" s="6" t="str" cm="1">
+        <f t="array" ref="I431">IFERROR(_xlfn.REGEXEXTRACT(E431,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>ameliavward@gmail.com</v>
+      </c>
       <c r="P431" s="20" t="s">
         <v>4522</v>
       </c>
@@ -48980,6 +49626,10 @@
       <c r="F432" s="19" t="s">
         <v>2176</v>
       </c>
+      <c r="I432" s="6" t="str" cm="1">
+        <f t="array" ref="I432">IFERROR(_xlfn.REGEXEXTRACT(E432,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P432" s="20" t="s">
         <v>4523</v>
       </c>
@@ -49036,6 +49686,10 @@
       <c r="F433" s="19" t="s">
         <v>2177</v>
       </c>
+      <c r="I433" s="6" t="str" cm="1">
+        <f t="array" ref="I433">IFERROR(_xlfn.REGEXEXTRACT(E433,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P433" s="20" t="s">
         <v>4524</v>
       </c>
@@ -49092,6 +49746,10 @@
       <c r="F434" s="19" t="s">
         <v>2178</v>
       </c>
+      <c r="I434" s="6" t="str" cm="1">
+        <f t="array" ref="I434">IFERROR(_xlfn.REGEXEXTRACT(E434,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>celly5401@gmail.com</v>
+      </c>
       <c r="P434" s="20" t="s">
         <v>4525</v>
       </c>
@@ -49148,6 +49806,10 @@
       <c r="F435" s="19" t="s">
         <v>2179</v>
       </c>
+      <c r="I435" s="6" t="str" cm="1">
+        <f t="array" ref="I435">IFERROR(_xlfn.REGEXEXTRACT(E435,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>ainsley@jabberhaus.com</v>
+      </c>
       <c r="P435" s="20" t="s">
         <v>4526</v>
       </c>
@@ -49204,6 +49866,10 @@
       <c r="F436" s="19" t="s">
         <v>2180</v>
       </c>
+      <c r="I436" s="6" t="str" cm="1">
+        <f t="array" ref="I436">IFERROR(_xlfn.REGEXEXTRACT(E436,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>brittcurls@gmail.com</v>
+      </c>
       <c r="P436" s="20" t="s">
         <v>4527</v>
       </c>
@@ -49260,6 +49926,10 @@
       <c r="F437" s="19" t="s">
         <v>2181</v>
       </c>
+      <c r="I437" s="6" t="str" cm="1">
+        <f t="array" ref="I437">IFERROR(_xlfn.REGEXEXTRACT(E437,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>mishell.jonas@yahoo.com</v>
+      </c>
       <c r="P437" s="20" t="s">
         <v>4528</v>
       </c>
@@ -49316,6 +49986,10 @@
       <c r="F438" s="19" t="s">
         <v>2182</v>
       </c>
+      <c r="I438" s="6" t="str" cm="1">
+        <f t="array" ref="I438">IFERROR(_xlfn.REGEXEXTRACT(E438,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P438" s="20" t="s">
         <v>4529</v>
       </c>
@@ -49372,6 +50046,10 @@
       <c r="F439" s="19" t="s">
         <v>2183</v>
       </c>
+      <c r="I439" s="6" t="str" cm="1">
+        <f t="array" ref="I439">IFERROR(_xlfn.REGEXEXTRACT(E439,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P439" s="20" t="s">
         <v>4530</v>
       </c>
@@ -49428,6 +50106,10 @@
       <c r="F440" s="19" t="s">
         <v>2184</v>
       </c>
+      <c r="I440" s="6" t="str" cm="1">
+        <f t="array" ref="I440">IFERROR(_xlfn.REGEXEXTRACT(E440,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P440" s="20" t="s">
         <v>4531</v>
       </c>
@@ -49484,6 +50166,10 @@
       <c r="F441" s="19" t="s">
         <v>2185</v>
       </c>
+      <c r="I441" s="6" t="str" cm="1">
+        <f t="array" ref="I441">IFERROR(_xlfn.REGEXEXTRACT(E441,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P441" s="20" t="s">
         <v>4532</v>
       </c>
@@ -49540,6 +50226,10 @@
       <c r="F442" s="19" t="s">
         <v>2186</v>
       </c>
+      <c r="I442" s="6" t="str" cm="1">
+        <f t="array" ref="I442">IFERROR(_xlfn.REGEXEXTRACT(E442,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>ren.little1125@gmail.com</v>
+      </c>
       <c r="P442" s="20" t="s">
         <v>4533</v>
       </c>
@@ -49596,6 +50286,10 @@
       <c r="F443" s="19" t="s">
         <v>2187</v>
       </c>
+      <c r="I443" s="6" t="str" cm="1">
+        <f t="array" ref="I443">IFERROR(_xlfn.REGEXEXTRACT(E443,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P443" s="20" t="s">
         <v>4534</v>
       </c>
@@ -49652,6 +50346,10 @@
       <c r="F444" s="19" t="s">
         <v>2188</v>
       </c>
+      <c r="I444" s="6" t="str" cm="1">
+        <f t="array" ref="I444">IFERROR(_xlfn.REGEXEXTRACT(E444,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>benji@romcomentertainment.com</v>
+      </c>
       <c r="P444" s="20" t="s">
         <v>4535</v>
       </c>
@@ -49708,6 +50406,10 @@
       <c r="F445" s="19" t="s">
         <v>2189</v>
       </c>
+      <c r="I445" s="6" t="str" cm="1">
+        <f t="array" ref="I445">IFERROR(_xlfn.REGEXEXTRACT(E445,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P445" s="20" t="s">
         <v>4536</v>
       </c>
@@ -49764,6 +50466,10 @@
       <c r="F446" s="19" t="s">
         <v>2190</v>
       </c>
+      <c r="I446" s="6" t="str" cm="1">
+        <f t="array" ref="I446">IFERROR(_xlfn.REGEXEXTRACT(E446,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P446" s="20" t="s">
         <v>4537</v>
       </c>
@@ -49820,6 +50526,10 @@
       <c r="F447" s="19" t="s">
         <v>2191</v>
       </c>
+      <c r="I447" s="6" t="str" cm="1">
+        <f t="array" ref="I447">IFERROR(_xlfn.REGEXEXTRACT(E447,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P447" s="20" t="s">
         <v>4538</v>
       </c>
@@ -49876,6 +50586,10 @@
       <c r="F448" s="19" t="s">
         <v>2192</v>
       </c>
+      <c r="I448" s="6" t="str" cm="1">
+        <f t="array" ref="I448">IFERROR(_xlfn.REGEXEXTRACT(E448,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P448" s="20" t="s">
         <v>4539</v>
       </c>
@@ -49932,6 +50646,10 @@
       <c r="F449" s="19" t="s">
         <v>2193</v>
       </c>
+      <c r="I449" s="6" t="str" cm="1">
+        <f t="array" ref="I449">IFERROR(_xlfn.REGEXEXTRACT(E449,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P449" s="20" t="s">
         <v>4540</v>
       </c>
@@ -49988,6 +50706,10 @@
       <c r="F450" s="19" t="s">
         <v>2194</v>
       </c>
+      <c r="I450" s="6" t="str" cm="1">
+        <f t="array" ref="I450">IFERROR(_xlfn.REGEXEXTRACT(E450,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P450" s="20" t="s">
         <v>4541</v>
       </c>
@@ -50044,6 +50766,10 @@
       <c r="F451" s="19" t="s">
         <v>2195</v>
       </c>
+      <c r="I451" s="6" t="str" cm="1">
+        <f t="array" ref="I451">IFERROR(_xlfn.REGEXEXTRACT(E451,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>celinekopriva15@gmail.com</v>
+      </c>
       <c r="P451" s="20" t="s">
         <v>4542</v>
       </c>
@@ -50100,6 +50826,10 @@
       <c r="F452" s="19" t="s">
         <v>2196</v>
       </c>
+      <c r="I452" s="6" t="str" cm="1">
+        <f t="array" ref="I452">IFERROR(_xlfn.REGEXEXTRACT(E452,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>olansong02@gmail.com</v>
+      </c>
       <c r="P452" s="20" t="s">
         <v>4543</v>
       </c>
@@ -50156,6 +50886,10 @@
       <c r="F453" s="19" t="s">
         <v>2197</v>
       </c>
+      <c r="I453" s="6" t="str" cm="1">
+        <f t="array" ref="I453">IFERROR(_xlfn.REGEXEXTRACT(E453,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P453" s="20" t="s">
         <v>4544</v>
       </c>
@@ -50212,6 +50946,10 @@
       <c r="F454" s="19" t="s">
         <v>2198</v>
       </c>
+      <c r="I454" s="6" t="str" cm="1">
+        <f t="array" ref="I454">IFERROR(_xlfn.REGEXEXTRACT(E454,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P454" s="20" t="s">
         <v>4545</v>
       </c>
@@ -50268,6 +51006,10 @@
       <c r="F455" s="19" t="s">
         <v>2199</v>
       </c>
+      <c r="I455" s="6" t="str" cm="1">
+        <f t="array" ref="I455">IFERROR(_xlfn.REGEXEXTRACT(E455,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P455" s="20" t="s">
         <v>4546</v>
       </c>
@@ -50324,6 +51066,10 @@
       <c r="F456" s="19" t="s">
         <v>2200</v>
       </c>
+      <c r="I456" s="6" t="str" cm="1">
+        <f t="array" ref="I456">IFERROR(_xlfn.REGEXEXTRACT(E456,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P456" s="20" t="s">
         <v>4547</v>
       </c>
@@ -50380,6 +51126,10 @@
       <c r="F457" s="19" t="s">
         <v>2201</v>
       </c>
+      <c r="I457" s="6" t="str" cm="1">
+        <f t="array" ref="I457">IFERROR(_xlfn.REGEXEXTRACT(E457,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>camronroserestaino@gmail.com</v>
+      </c>
       <c r="P457" s="20" t="s">
         <v>4548</v>
       </c>
@@ -50436,6 +51186,10 @@
       <c r="F458" s="19" t="s">
         <v>2202</v>
       </c>
+      <c r="I458" s="6" t="str" cm="1">
+        <f t="array" ref="I458">IFERROR(_xlfn.REGEXEXTRACT(E458,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P458" s="20" t="s">
         <v>4549</v>
       </c>
@@ -50492,6 +51246,10 @@
       <c r="F459" s="19" t="s">
         <v>2203</v>
       </c>
+      <c r="I459" s="6" t="str" cm="1">
+        <f t="array" ref="I459">IFERROR(_xlfn.REGEXEXTRACT(E459,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>olivia@courtside.ltd</v>
+      </c>
       <c r="P459" s="20" t="s">
         <v>4550</v>
       </c>
@@ -50548,6 +51306,10 @@
       <c r="F460" s="19" t="s">
         <v>2204</v>
       </c>
+      <c r="I460" s="6" t="str" cm="1">
+        <f t="array" ref="I460">IFERROR(_xlfn.REGEXEXTRACT(E460,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>jaylac523@gmail.com</v>
+      </c>
       <c r="P460" s="20" t="s">
         <v>4551</v>
       </c>
@@ -50604,6 +51366,10 @@
       <c r="F461" s="19" t="s">
         <v>2205</v>
       </c>
+      <c r="I461" s="6" t="str" cm="1">
+        <f t="array" ref="I461">IFERROR(_xlfn.REGEXEXTRACT(E461,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P461" s="20" t="s">
         <v>4552</v>
       </c>
@@ -50660,6 +51426,10 @@
       <c r="F462" s="19" t="s">
         <v>2206</v>
       </c>
+      <c r="I462" s="6" t="str" cm="1">
+        <f t="array" ref="I462">IFERROR(_xlfn.REGEXEXTRACT(E462,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P462" s="20" t="s">
         <v>4553</v>
       </c>
@@ -50716,6 +51486,10 @@
       <c r="F463" s="19" t="s">
         <v>2207</v>
       </c>
+      <c r="I463" s="6" t="str" cm="1">
+        <f t="array" ref="I463">IFERROR(_xlfn.REGEXEXTRACT(E463,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P463" s="20" t="s">
         <v>4554</v>
       </c>
@@ -50772,6 +51546,10 @@
       <c r="F464" s="19" t="s">
         <v>2208</v>
       </c>
+      <c r="I464" s="6" t="str" cm="1">
+        <f t="array" ref="I464">IFERROR(_xlfn.REGEXEXTRACT(E464,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P464" s="20" t="s">
         <v>4555</v>
       </c>
@@ -50828,6 +51606,10 @@
       <c r="F465" s="19" t="s">
         <v>2209</v>
       </c>
+      <c r="I465" s="6" t="str" cm="1">
+        <f t="array" ref="I465">IFERROR(_xlfn.REGEXEXTRACT(E465,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>boujeefindsofficial@gmail.com</v>
+      </c>
       <c r="P465" s="20" t="s">
         <v>4556</v>
       </c>
@@ -50884,6 +51666,10 @@
       <c r="F466" s="19" t="s">
         <v>1891</v>
       </c>
+      <c r="I466" s="6" t="str" cm="1">
+        <f t="array" ref="I466">IFERROR(_xlfn.REGEXEXTRACT(E466,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>lanealiciamedia@gmail.com</v>
+      </c>
       <c r="P466" s="20" t="s">
         <v>4557</v>
       </c>
@@ -50940,6 +51726,10 @@
       <c r="F467" s="19" t="s">
         <v>2210</v>
       </c>
+      <c r="I467" s="6" t="str" cm="1">
+        <f t="array" ref="I467">IFERROR(_xlfn.REGEXEXTRACT(E467,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>keepingupwithtania@gmail.com</v>
+      </c>
       <c r="P467" s="20" t="s">
         <v>4558</v>
       </c>
@@ -50996,6 +51786,10 @@
       <c r="F468" s="19" t="s">
         <v>2211</v>
       </c>
+      <c r="I468" s="6" t="str" cm="1">
+        <f t="array" ref="I468">IFERROR(_xlfn.REGEXEXTRACT(E468,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P468" s="20" t="s">
         <v>4559</v>
       </c>
@@ -51052,6 +51846,10 @@
       <c r="F469" s="19" t="s">
         <v>2212</v>
       </c>
+      <c r="I469" s="6" t="str" cm="1">
+        <f t="array" ref="I469">IFERROR(_xlfn.REGEXEXTRACT(E469,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>dasiamajors@gmail.com</v>
+      </c>
       <c r="P469" s="20" t="s">
         <v>4560</v>
       </c>
@@ -51108,6 +51906,10 @@
       <c r="F470" s="19" t="s">
         <v>2213</v>
       </c>
+      <c r="I470" s="6" t="str" cm="1">
+        <f t="array" ref="I470">IFERROR(_xlfn.REGEXEXTRACT(E470,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>playgirldom@gmail.com</v>
+      </c>
       <c r="P470" s="20" t="s">
         <v>4561</v>
       </c>
@@ -51164,6 +51966,10 @@
       <c r="F471" s="19" t="s">
         <v>2214</v>
       </c>
+      <c r="I471" s="6" t="str" cm="1">
+        <f t="array" ref="I471">IFERROR(_xlfn.REGEXEXTRACT(E471,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P471" s="20" t="s">
         <v>4562</v>
       </c>
@@ -51220,6 +52026,10 @@
       <c r="F472" s="19" t="s">
         <v>2215</v>
       </c>
+      <c r="I472" s="6" t="str" cm="1">
+        <f t="array" ref="I472">IFERROR(_xlfn.REGEXEXTRACT(E472,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>keepingupwithtania@gmail.com</v>
+      </c>
       <c r="P472" s="20" t="s">
         <v>4563</v>
       </c>
@@ -51276,6 +52086,10 @@
       <c r="F473" s="19" t="s">
         <v>2216</v>
       </c>
+      <c r="I473" s="6" t="str" cm="1">
+        <f t="array" ref="I473">IFERROR(_xlfn.REGEXEXTRACT(E473,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>aryanarosesocial@gmail.com</v>
+      </c>
       <c r="P473" s="20" t="s">
         <v>4564</v>
       </c>
@@ -51332,6 +52146,10 @@
       <c r="F474" s="19" t="s">
         <v>2217</v>
       </c>
+      <c r="I474" s="6" t="str" cm="1">
+        <f t="array" ref="I474">IFERROR(_xlfn.REGEXEXTRACT(E474,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P474" s="20" t="s">
         <v>4565</v>
       </c>
@@ -51388,6 +52206,10 @@
       <c r="F475" s="19" t="s">
         <v>2218</v>
       </c>
+      <c r="I475" s="6" t="str" cm="1">
+        <f t="array" ref="I475">IFERROR(_xlfn.REGEXEXTRACT(E475,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P475" s="20" t="s">
         <v>4566</v>
       </c>
@@ -51444,6 +52266,10 @@
       <c r="F476" s="19" t="s">
         <v>2219</v>
       </c>
+      <c r="I476" s="6" t="str" cm="1">
+        <f t="array" ref="I476">IFERROR(_xlfn.REGEXEXTRACT(E476,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>gabikirsten@changodigital.com.br</v>
+      </c>
       <c r="P476" s="20" t="s">
         <v>4567</v>
       </c>
@@ -51500,6 +52326,10 @@
       <c r="F477" s="19" t="s">
         <v>2220</v>
       </c>
+      <c r="I477" s="6" t="str" cm="1">
+        <f t="array" ref="I477">IFERROR(_xlfn.REGEXEXTRACT(E477,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P477" s="20" t="s">
         <v>4568</v>
       </c>
@@ -51556,6 +52386,10 @@
       <c r="F478" s="19" t="s">
         <v>2221</v>
       </c>
+      <c r="I478" s="6" t="str" cm="1">
+        <f t="array" ref="I478">IFERROR(_xlfn.REGEXEXTRACT(E478,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>ariel@ozlaneagency.com</v>
+      </c>
       <c r="P478" s="20" t="s">
         <v>4569</v>
       </c>
@@ -51612,6 +52446,10 @@
       <c r="F479" s="19" t="s">
         <v>2222</v>
       </c>
+      <c r="I479" s="6" t="str" cm="1">
+        <f t="array" ref="I479">IFERROR(_xlfn.REGEXEXTRACT(E479,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>natalyarchivesbizz@gmail.com</v>
+      </c>
       <c r="P479" s="20" t="s">
         <v>4570</v>
       </c>
@@ -51668,6 +52506,10 @@
       <c r="F480" s="19" t="s">
         <v>2223</v>
       </c>
+      <c r="I480" s="6" t="str" cm="1">
+        <f t="array" ref="I480">IFERROR(_xlfn.REGEXEXTRACT(E480,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>sara@listheagency.com</v>
+      </c>
       <c r="P480" s="20" t="s">
         <v>4571</v>
       </c>
@@ -51724,6 +52566,10 @@
       <c r="F481" s="19" t="s">
         <v>2224</v>
       </c>
+      <c r="I481" s="6" t="str" cm="1">
+        <f t="array" ref="I481">IFERROR(_xlfn.REGEXEXTRACT(E481,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P481" s="20" t="s">
         <v>4572</v>
       </c>
@@ -51780,6 +52626,10 @@
       <c r="F482" s="19" t="s">
         <v>2225</v>
       </c>
+      <c r="I482" s="6" t="str" cm="1">
+        <f t="array" ref="I482">IFERROR(_xlfn.REGEXEXTRACT(E482,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P482" s="20" t="s">
         <v>4573</v>
       </c>
@@ -51836,6 +52686,10 @@
       <c r="F483" s="19" t="s">
         <v>2226</v>
       </c>
+      <c r="I483" s="6" t="str" cm="1">
+        <f t="array" ref="I483">IFERROR(_xlfn.REGEXEXTRACT(E483,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P483" s="20" t="s">
         <v>4574</v>
       </c>
@@ -51892,6 +52746,10 @@
       <c r="F484" s="19" t="s">
         <v>2227</v>
       </c>
+      <c r="I484" s="6" t="str" cm="1">
+        <f t="array" ref="I484">IFERROR(_xlfn.REGEXEXTRACT(E484,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P484" s="20" t="s">
         <v>4575</v>
       </c>
@@ -51948,6 +52806,10 @@
       <c r="F485" s="19" t="s">
         <v>2228</v>
       </c>
+      <c r="I485" s="6" t="str" cm="1">
+        <f t="array" ref="I485">IFERROR(_xlfn.REGEXEXTRACT(E485,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>Bonsignorinicol@gmail.com</v>
+      </c>
       <c r="P485" s="20" t="s">
         <v>4576</v>
       </c>
@@ -52004,6 +52866,10 @@
       <c r="F486" s="19" t="s">
         <v>2229</v>
       </c>
+      <c r="I486" s="6" t="str" cm="1">
+        <f t="array" ref="I486">IFERROR(_xlfn.REGEXEXTRACT(E486,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>ceciliamaryrosework@gmail.com</v>
+      </c>
       <c r="P486" s="20" t="s">
         <v>4577</v>
       </c>
@@ -52060,6 +52926,10 @@
       <c r="F487" s="19" t="s">
         <v>2230</v>
       </c>
+      <c r="I487" s="6" t="str" cm="1">
+        <f t="array" ref="I487">IFERROR(_xlfn.REGEXEXTRACT(E487,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P487" s="20" t="s">
         <v>4578</v>
       </c>
@@ -52116,6 +52986,10 @@
       <c r="F488" s="19" t="s">
         <v>2231</v>
       </c>
+      <c r="I488" s="6" t="str" cm="1">
+        <f t="array" ref="I488">IFERROR(_xlfn.REGEXEXTRACT(E488,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>katiedimitrova@gmx.de</v>
+      </c>
       <c r="P488" s="20" t="s">
         <v>4579</v>
       </c>
@@ -52172,6 +53046,10 @@
       <c r="F489" s="19" t="s">
         <v>2232</v>
       </c>
+      <c r="I489" s="6" t="str" cm="1">
+        <f t="array" ref="I489">IFERROR(_xlfn.REGEXEXTRACT(E489,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>alexandratsolakidis72@gmail.com</v>
+      </c>
       <c r="P489" s="20" t="s">
         <v>4580</v>
       </c>
@@ -52228,6 +53106,10 @@
       <c r="F490" s="19" t="s">
         <v>2233</v>
       </c>
+      <c r="I490" s="6" t="str" cm="1">
+        <f t="array" ref="I490">IFERROR(_xlfn.REGEXEXTRACT(E490,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P490" s="20" t="s">
         <v>4581</v>
       </c>
@@ -52284,6 +53166,10 @@
       <c r="F491" s="19" t="s">
         <v>2234</v>
       </c>
+      <c r="I491" s="6" t="str" cm="1">
+        <f t="array" ref="I491">IFERROR(_xlfn.REGEXEXTRACT(E491,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>hanna.bergen@hotmail.com</v>
+      </c>
       <c r="P491" s="20" t="s">
         <v>4582</v>
       </c>
@@ -52340,6 +53226,10 @@
       <c r="F492" s="19" t="s">
         <v>2235</v>
       </c>
+      <c r="I492" s="6" t="str" cm="1">
+        <f t="array" ref="I492">IFERROR(_xlfn.REGEXEXTRACT(E492,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>2.이메일 없음</v>
+      </c>
       <c r="P492" s="20" t="s">
         <v>4583</v>
       </c>
@@ -52396,6 +53286,10 @@
       <c r="F493" s="19" t="s">
         <v>2236</v>
       </c>
+      <c r="I493" s="6" t="str" cm="1">
+        <f t="array" ref="I493">IFERROR(_xlfn.REGEXEXTRACT(E493,"[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}"),"2.이메일 없음")</f>
+        <v>vivi@mostwantedmodels.com</v>
+      </c>
       <c r="P493" s="20" t="s">
         <v>4584</v>
       </c>
@@ -52437,6 +53331,7 @@
       </c>
     </row>
     <row r="494" spans="2:28" ht="15.75" customHeight="1">
+      <c r="I494" s="6"/>
       <c r="Z494" s="23"/>
     </row>
     <row r="495" spans="2:28" ht="15.75" customHeight="1">
